--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4c-Plxnb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.114015666666667</v>
+        <v>11.06647866666667</v>
       </c>
       <c r="H2">
-        <v>18.342047</v>
+        <v>33.199436</v>
       </c>
       <c r="I2">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="J2">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N2">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P2">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q2">
-        <v>53.9806361689791</v>
+        <v>25.72965880948178</v>
       </c>
       <c r="R2">
-        <v>485.825725520812</v>
+        <v>231.566929285336</v>
       </c>
       <c r="S2">
-        <v>0.05419143211025402</v>
+        <v>0.02391473140486854</v>
       </c>
       <c r="T2">
-        <v>0.05419143211025402</v>
+        <v>0.02391473140486853</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.114015666666667</v>
+        <v>11.06647866666667</v>
       </c>
       <c r="H3">
-        <v>18.342047</v>
+        <v>33.199436</v>
       </c>
       <c r="I3">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="J3">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>58.014853</v>
       </c>
       <c r="O3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P3">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q3">
-        <v>118.2345733804546</v>
+        <v>214.0067110247676</v>
       </c>
       <c r="R3">
-        <v>1064.111160424091</v>
+        <v>1926.060399222908</v>
       </c>
       <c r="S3">
-        <v>0.1186962827999018</v>
+        <v>0.198911033018075</v>
       </c>
       <c r="T3">
-        <v>0.1186962827999018</v>
+        <v>0.198911033018075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.114015666666667</v>
+        <v>11.06647866666667</v>
       </c>
       <c r="H4">
-        <v>18.342047</v>
+        <v>33.199436</v>
       </c>
       <c r="I4">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="J4">
-        <v>0.3019936850190227</v>
+        <v>0.4391813340952289</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>63.102767</v>
       </c>
       <c r="O4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P4">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q4">
-        <v>128.6037686826721</v>
+        <v>232.7751416043791</v>
       </c>
       <c r="R4">
-        <v>1157.433918144049</v>
+        <v>2094.976274439412</v>
       </c>
       <c r="S4">
-        <v>0.129105970108867</v>
+        <v>0.2163555696722854</v>
       </c>
       <c r="T4">
-        <v>0.129105970108867</v>
+        <v>0.2163555696722853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>32.940974</v>
       </c>
       <c r="I5">
-        <v>0.5423585560747837</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="J5">
-        <v>0.5423585560747836</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N5">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P5">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q5">
-        <v>96.94527184156709</v>
+        <v>25.52935001281378</v>
       </c>
       <c r="R5">
-        <v>872.5074465741038</v>
+        <v>229.764150115324</v>
       </c>
       <c r="S5">
-        <v>0.09732384592442941</v>
+        <v>0.02372855205807587</v>
       </c>
       <c r="T5">
-        <v>0.0973238459244294</v>
+        <v>0.02372855205807586</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>32.940974</v>
       </c>
       <c r="I6">
-        <v>0.5423585560747837</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="J6">
-        <v>0.5423585560747836</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>58.014853</v>
       </c>
       <c r="O6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P6">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q6">
         <v>212.3406404763136</v>
@@ -818,10 +818,10 @@
         <v>1911.065764286822</v>
       </c>
       <c r="S6">
-        <v>0.2131698368021962</v>
+        <v>0.1973624843193587</v>
       </c>
       <c r="T6">
-        <v>0.2131698368021961</v>
+        <v>0.1973624843193586</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>32.940974</v>
       </c>
       <c r="I7">
-        <v>0.5423585560747837</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="J7">
-        <v>0.5423585560747836</v>
+        <v>0.4357622493260503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>63.102767</v>
       </c>
       <c r="O7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P7">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q7">
         <v>230.9629563416731</v>
@@ -880,10 +880,10 @@
         <v>2078.666607075058</v>
       </c>
       <c r="S7">
-        <v>0.2318648733481581</v>
+        <v>0.2146712129486158</v>
       </c>
       <c r="T7">
-        <v>0.2318648733481581</v>
+        <v>0.2146712129486158</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.453503999999999</v>
       </c>
       <c r="I8">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="J8">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.828998666666665</v>
+        <v>2.325008666666667</v>
       </c>
       <c r="N8">
-        <v>26.486996</v>
+        <v>6.975026</v>
       </c>
       <c r="O8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988467</v>
       </c>
       <c r="P8">
-        <v>0.1794455804823882</v>
+        <v>0.05445297772988466</v>
       </c>
       <c r="Q8">
-        <v>27.82165807044266</v>
+        <v>7.326492910122666</v>
       </c>
       <c r="R8">
-        <v>250.394922633984</v>
+        <v>65.93843619110399</v>
       </c>
       <c r="S8">
-        <v>0.02793030244770471</v>
+        <v>0.006809694266940267</v>
       </c>
       <c r="T8">
-        <v>0.0279303024477047</v>
+        <v>0.006809694266940266</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.453503999999999</v>
       </c>
       <c r="I9">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="J9">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>58.014853</v>
       </c>
       <c r="O9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="P9">
-        <v>0.3930422677296217</v>
+        <v>0.4529132218878514</v>
       </c>
       <c r="Q9">
         <v>60.93818276610133</v>
@@ -1004,10 +1004,10 @@
         <v>548.4436448949119</v>
       </c>
       <c r="S9">
-        <v>0.06117614812752375</v>
+        <v>0.05663970455041778</v>
       </c>
       <c r="T9">
-        <v>0.06117614812752374</v>
+        <v>0.05663970455041777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.453503999999999</v>
       </c>
       <c r="I10">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="J10">
-        <v>0.1556477589061936</v>
+        <v>0.1250564165787209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>63.102767</v>
       </c>
       <c r="O10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="P10">
-        <v>0.4275121517879902</v>
+        <v>0.492633800382264</v>
       </c>
       <c r="Q10">
         <v>66.28247336061867</v>
@@ -1066,10 +1066,10 @@
         <v>596.5422602455679</v>
       </c>
       <c r="S10">
-        <v>0.06654130833096514</v>
+        <v>0.06160701776136282</v>
       </c>
       <c r="T10">
-        <v>0.06654130833096512</v>
+        <v>0.06160701776136281</v>
       </c>
     </row>
   </sheetData>
